--- a/data_group/random_effects_temp.xlsx
+++ b/data_group/random_effects_temp.xlsx
@@ -391,19 +391,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.2361228933198829</v>
+        <v>-0.2345096078179107</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2">
-        <v>0.0249823876763654</v>
+        <v>0.02505988870399141</v>
       </c>
       <c r="D2">
-        <v>-0.285088373165559</v>
+        <v>-0.2836269896777339</v>
       </c>
       <c r="E2">
-        <v>-0.1871574134742067</v>
+        <v>-0.1853922259580876</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -413,19 +413,19 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.04363018082711095</v>
+        <v>0.04307383015944302</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3">
-        <v>0.0249823876763654</v>
+        <v>0.02505988870399141</v>
       </c>
       <c r="D3">
-        <v>-0.00533529901856522</v>
+        <v>-0.006043551700380137</v>
       </c>
       <c r="E3">
-        <v>0.09259566067278713</v>
+        <v>0.09219121201926618</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -435,19 +435,19 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.296854492887126</v>
+        <v>-0.2948322715734149</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="C4">
-        <v>0.0249823876763654</v>
+        <v>0.02505988870399141</v>
       </c>
       <c r="D4">
-        <v>-0.3458199727328021</v>
+        <v>-0.3439496534332381</v>
       </c>
       <c r="E4">
-        <v>-0.2478890130414498</v>
+        <v>-0.2457148897135917</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -457,19 +457,19 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.4429805492223566</v>
+        <v>-0.4406656659562842</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5">
-        <v>0.0249823876763654</v>
+        <v>0.02505988870399141</v>
       </c>
       <c r="D5">
-        <v>-0.4919460290680328</v>
+        <v>-0.4897830478161074</v>
       </c>
       <c r="E5">
-        <v>-0.3940150693766805</v>
+        <v>-0.391548284096461</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -479,19 +479,19 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.07058409874433794</v>
+        <v>-0.07040402046025127</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6">
-        <v>0.0249823876763654</v>
+        <v>0.02505988870399141</v>
       </c>
       <c r="D6">
-        <v>-0.1195495785900141</v>
+        <v>-0.1195214023200744</v>
       </c>
       <c r="E6">
-        <v>-0.02161861889866176</v>
+        <v>-0.02128663860042811</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -501,19 +501,19 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.2224947856188897</v>
+        <v>-0.222854101644878</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
       <c r="C7">
-        <v>0.0249823876763654</v>
+        <v>0.02505988870399141</v>
       </c>
       <c r="D7">
-        <v>-0.2714602654645659</v>
+        <v>-0.2719714835047011</v>
       </c>
       <c r="E7">
-        <v>-0.1735293057732135</v>
+        <v>-0.1737367197850548</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -523,19 +523,19 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.3318024140020679</v>
+        <v>-0.3308719699027448</v>
       </c>
       <c r="B8">
         <v>2007</v>
       </c>
       <c r="C8">
-        <v>0.0249823876763654</v>
+        <v>0.02505988870399141</v>
       </c>
       <c r="D8">
-        <v>-0.3807678938477441</v>
+        <v>-0.379989351762568</v>
       </c>
       <c r="E8">
-        <v>-0.2828369341563918</v>
+        <v>-0.2817545880429216</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -545,19 +545,19 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.2848071109672026</v>
+        <v>-0.2854985188998917</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
       <c r="C9">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D9">
-        <v>-0.3272431222553751</v>
+        <v>-0.3280665234640731</v>
       </c>
       <c r="E9">
-        <v>-0.2423710996790301</v>
+        <v>-0.2429305143357104</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -567,19 +567,19 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.3462339656578841</v>
+        <v>0.3447647216539632</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D10">
-        <v>0.3037979543697116</v>
+        <v>0.3021967170897818</v>
       </c>
       <c r="E10">
-        <v>0.3886699769460565</v>
+        <v>0.3873327262181445</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -589,19 +589,19 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.08800092126556779</v>
+        <v>0.08830467782927226</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D11">
-        <v>0.0455649099773953</v>
+        <v>0.04573667326509092</v>
       </c>
       <c r="E11">
-        <v>0.1304369325537403</v>
+        <v>0.1308726823934536</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -611,19 +611,19 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>-0.2350950439462434</v>
+        <v>-0.2346381279101425</v>
       </c>
       <c r="B12">
         <v>2011</v>
       </c>
       <c r="C12">
-        <v>0.021925626618408</v>
+        <v>0.02199381042989738</v>
       </c>
       <c r="D12">
-        <v>-0.2780692721183231</v>
+        <v>-0.2777459963527413</v>
       </c>
       <c r="E12">
-        <v>-0.1921208157741637</v>
+        <v>-0.1915302594675436</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -633,19 +633,19 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.1489941324401804</v>
+        <v>-0.1484077043425099</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13">
-        <v>0.021925626618408</v>
+        <v>0.02199381042989738</v>
       </c>
       <c r="D13">
-        <v>-0.1919683606122601</v>
+        <v>-0.1915155727851088</v>
       </c>
       <c r="E13">
-        <v>-0.1060199042681007</v>
+        <v>-0.105299835899911</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -655,19 +655,19 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.4300338777924695</v>
+        <v>-0.4292661979345519</v>
       </c>
       <c r="B14">
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>0.021925626618408</v>
+        <v>0.02199381042989738</v>
       </c>
       <c r="D14">
-        <v>-0.4730081059645492</v>
+        <v>-0.4723740663771508</v>
       </c>
       <c r="E14">
-        <v>-0.3870596496203899</v>
+        <v>-0.386158329491953</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -677,19 +677,19 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.05334900755278706</v>
+        <v>-0.05377310613963841</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>0.02221094759254762</v>
+        <v>0.02228000395975248</v>
       </c>
       <c r="D15">
-        <v>-0.09688246483418039</v>
+        <v>-0.09744191390075327</v>
       </c>
       <c r="E15">
-        <v>-0.009815550271393726</v>
+        <v>-0.01010429837852354</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -699,19 +699,19 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.602281997606831</v>
+        <v>0.600230142866786</v>
       </c>
       <c r="B16">
         <v>2015</v>
       </c>
       <c r="C16">
-        <v>0.02221094759254762</v>
+        <v>0.02228000395975248</v>
       </c>
       <c r="D16">
-        <v>0.5587485403254376</v>
+        <v>0.5565613351056712</v>
       </c>
       <c r="E16">
-        <v>0.6458154548882243</v>
+        <v>0.6438989506279008</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -721,19 +721,19 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.5941172174348224</v>
+        <v>0.5935980069009144</v>
       </c>
       <c r="B17">
         <v>2016</v>
       </c>
       <c r="C17">
-        <v>0.021925626618408</v>
+        <v>0.02199381042989738</v>
       </c>
       <c r="D17">
-        <v>0.5511429892627427</v>
+        <v>0.5504901384583155</v>
       </c>
       <c r="E17">
-        <v>0.637091445606902</v>
+        <v>0.6367058753435132</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -743,19 +743,19 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.3536688606076103</v>
+        <v>0.3521526196451039</v>
       </c>
       <c r="B18">
         <v>2017</v>
       </c>
       <c r="C18">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D18">
-        <v>0.3112328493194378</v>
+        <v>0.3095846150809225</v>
       </c>
       <c r="E18">
-        <v>0.3961048718957828</v>
+        <v>0.3947206242092852</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -765,19 +765,19 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.1862984395338231</v>
+        <v>0.1857686414192121</v>
       </c>
       <c r="B19">
         <v>2018</v>
       </c>
       <c r="C19">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D19">
-        <v>0.1438624282456507</v>
+        <v>0.1432006368550307</v>
       </c>
       <c r="E19">
-        <v>0.2287344508219956</v>
+        <v>0.2283366459833934</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -787,19 +787,19 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.2808271435557639</v>
+        <v>0.2806241589590159</v>
       </c>
       <c r="B20">
         <v>2019</v>
       </c>
       <c r="C20">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D20">
-        <v>0.2383911322675914</v>
+        <v>0.2380561543948345</v>
       </c>
       <c r="E20">
-        <v>0.3232631548439364</v>
+        <v>0.3231921635231972</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -809,19 +809,19 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.4302215749826608</v>
+        <v>0.4297209121343664</v>
       </c>
       <c r="B21">
         <v>2020</v>
       </c>
       <c r="C21">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D21">
-        <v>0.3877855636944884</v>
+        <v>0.387152907570185</v>
       </c>
       <c r="E21">
-        <v>0.4726575862708333</v>
+        <v>0.4722889166985477</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -831,19 +831,19 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.1721618950765793</v>
+        <v>-0.172516419002596</v>
       </c>
       <c r="B22">
         <v>2021</v>
       </c>
       <c r="C22">
-        <v>0.02165102616743494</v>
+        <v>0.02171836967560272</v>
       </c>
       <c r="D22">
-        <v>-0.2145979063647518</v>
+        <v>-0.2150844235667774</v>
       </c>
       <c r="E22">
-        <v>-0.1297258837884068</v>
+        <v>-0.1299484144384147</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -853,19 +853,19 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.5259127207449342</v>
+        <v>-0.5201071430383944</v>
       </c>
       <c r="B23">
         <v>2001</v>
       </c>
       <c r="C23">
-        <v>0.01269066102955748</v>
+        <v>0.01355516475067738</v>
       </c>
       <c r="D23">
-        <v>-0.5507864163628668</v>
+        <v>-0.5466752659497222</v>
       </c>
       <c r="E23">
-        <v>-0.5010390251270016</v>
+        <v>-0.4935390201270668</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -875,19 +875,19 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.2299237009272872</v>
+        <v>-0.2275964469670823</v>
       </c>
       <c r="B24">
         <v>2002</v>
       </c>
       <c r="C24">
-        <v>0.01269066102955748</v>
+        <v>0.01355516475067738</v>
       </c>
       <c r="D24">
-        <v>-0.2547973965452198</v>
+        <v>-0.25416456987841</v>
       </c>
       <c r="E24">
-        <v>-0.2050500053093545</v>
+        <v>-0.2010283240557546</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -897,19 +897,19 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.4332456615494997</v>
+        <v>-0.4285823484236269</v>
       </c>
       <c r="B25">
         <v>2003</v>
       </c>
       <c r="C25">
-        <v>0.01269066102955748</v>
+        <v>0.01355516475067738</v>
       </c>
       <c r="D25">
-        <v>-0.4581193571674324</v>
+        <v>-0.4551504713349545</v>
       </c>
       <c r="E25">
-        <v>-0.408371965931567</v>
+        <v>-0.4020142255122992</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -919,19 +919,19 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.4749336567774837</v>
+        <v>-0.4676313877732733</v>
       </c>
       <c r="B26">
         <v>2004</v>
       </c>
       <c r="C26">
-        <v>0.01269066102955748</v>
+        <v>0.01355516475067738</v>
       </c>
       <c r="D26">
-        <v>-0.4998073523954164</v>
+        <v>-0.494199510684601</v>
       </c>
       <c r="E26">
-        <v>-0.450059961159551</v>
+        <v>-0.4410632648619457</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.1457053068271252</v>
+        <v>0.1432175071207155</v>
       </c>
       <c r="B27">
         <v>2005</v>
       </c>
       <c r="C27">
-        <v>0.01269066102955748</v>
+        <v>0.01355516475067738</v>
       </c>
       <c r="D27">
-        <v>0.1208316112091925</v>
+        <v>0.1166493842093879</v>
       </c>
       <c r="E27">
-        <v>0.1705790024450579</v>
+        <v>0.1697856300320432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -963,19 +963,19 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.2919591237639301</v>
+        <v>-0.2905051002338411</v>
       </c>
       <c r="B28">
         <v>2006</v>
       </c>
       <c r="C28">
-        <v>0.01269066102955748</v>
+        <v>0.01355516475067738</v>
       </c>
       <c r="D28">
-        <v>-0.3168328193818628</v>
+        <v>-0.3170732231451688</v>
       </c>
       <c r="E28">
-        <v>-0.2670854281459974</v>
+        <v>-0.2639369773225135</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -985,19 +985,19 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.1377508862090926</v>
+        <v>-0.1434116536149984</v>
       </c>
       <c r="B29">
         <v>2007</v>
       </c>
       <c r="C29">
-        <v>0.01269066102955748</v>
+        <v>0.01355516475067738</v>
       </c>
       <c r="D29">
-        <v>-0.1626245818270253</v>
+        <v>-0.169979776526326</v>
       </c>
       <c r="E29">
-        <v>-0.11287719059116</v>
+        <v>-0.1168435307036707</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1007,19 +1007,19 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.08488280492702985</v>
+        <v>-0.0836475025011269</v>
       </c>
       <c r="B30">
         <v>2008</v>
       </c>
       <c r="C30">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D30">
-        <v>-0.1064281352087489</v>
+        <v>-0.1066612421823172</v>
       </c>
       <c r="E30">
-        <v>-0.06333747464531078</v>
+        <v>-0.06063376281993656</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1029,19 +1029,19 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.06447205720959952</v>
+        <v>-0.06161612087399719</v>
       </c>
       <c r="B31">
         <v>2009</v>
       </c>
       <c r="C31">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D31">
-        <v>-0.0860173874913186</v>
+        <v>-0.08462986055518754</v>
       </c>
       <c r="E31">
-        <v>-0.04292672692788044</v>
+        <v>-0.03860238119280684</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1051,19 +1051,19 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.2177000633280768</v>
+        <v>0.2171018309562287</v>
       </c>
       <c r="B32">
         <v>2010</v>
       </c>
       <c r="C32">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D32">
-        <v>0.1961547330463577</v>
+        <v>0.1940880912750383</v>
       </c>
       <c r="E32">
-        <v>0.2392453936097959</v>
+        <v>0.240115570637419</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.1765776434057603</v>
+        <v>-0.1726184907646224</v>
       </c>
       <c r="B33">
         <v>2011</v>
       </c>
       <c r="C33">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D33">
-        <v>-0.1981229736874794</v>
+        <v>-0.1956322304458128</v>
       </c>
       <c r="E33">
-        <v>-0.1550323131240412</v>
+        <v>-0.149604751083432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1095,19 +1095,19 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.03554466001106727</v>
+        <v>0.03203626385904057</v>
       </c>
       <c r="B34">
         <v>2012</v>
       </c>
       <c r="C34">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D34">
-        <v>0.0139993297293482</v>
+        <v>0.009022524177850221</v>
       </c>
       <c r="E34">
-        <v>0.05708999029278634</v>
+        <v>0.05505000354023092</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1117,19 +1117,19 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.2477263253370833</v>
+        <v>-0.2463320846687883</v>
       </c>
       <c r="B35">
         <v>2013</v>
       </c>
       <c r="C35">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D35">
-        <v>-0.2692716556188024</v>
+        <v>-0.2693458243499786</v>
       </c>
       <c r="E35">
-        <v>-0.2261809950553643</v>
+        <v>-0.2233183449875979</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1139,19 +1139,19 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.0781860179937251</v>
+        <v>-0.07902059647360232</v>
       </c>
       <c r="B36">
         <v>2014</v>
       </c>
       <c r="C36">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D36">
-        <v>-0.09973134827544416</v>
+        <v>-0.1020343361547927</v>
       </c>
       <c r="E36">
-        <v>-0.05664068771200603</v>
+        <v>-0.05600685679241198</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1161,19 +1161,19 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.4803122482442203</v>
+        <v>0.4749393580220889</v>
       </c>
       <c r="B37">
         <v>2015</v>
       </c>
       <c r="C37">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D37">
-        <v>0.4587669179625012</v>
+        <v>0.4519256183408986</v>
       </c>
       <c r="E37">
-        <v>0.5018575785259394</v>
+        <v>0.4979530977032793</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1183,19 +1183,19 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.6067738453964918</v>
+        <v>0.5983715804825234</v>
       </c>
       <c r="B38">
         <v>2016</v>
       </c>
       <c r="C38">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D38">
-        <v>0.5852285151147727</v>
+        <v>0.575357840801333</v>
       </c>
       <c r="E38">
-        <v>0.6283191756782109</v>
+        <v>0.6213853201637137</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1205,19 +1205,19 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.5408926437201967</v>
+        <v>0.5362523194698788</v>
       </c>
       <c r="B39">
         <v>2017</v>
       </c>
       <c r="C39">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D39">
-        <v>0.5193473134384776</v>
+        <v>0.5132385797886885</v>
       </c>
       <c r="E39">
-        <v>0.5624379740019159</v>
+        <v>0.5592660591510692</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1227,19 +1227,19 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.1219224691519328</v>
+        <v>0.1214120853435836</v>
       </c>
       <c r="B40">
         <v>2018</v>
       </c>
       <c r="C40">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D40">
-        <v>0.1003771388702138</v>
+        <v>0.09839834566239325</v>
       </c>
       <c r="E40">
-        <v>0.1434677994336519</v>
+        <v>0.1444258250247739</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1249,19 +1249,19 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.1805421625138298</v>
+        <v>0.1809971681333207</v>
       </c>
       <c r="B41">
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D41">
-        <v>0.1589968322321108</v>
+        <v>0.1579834284521304</v>
       </c>
       <c r="E41">
-        <v>0.2020874927955489</v>
+        <v>0.2040109078145111</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1271,19 +1271,19 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.398349510635731</v>
+        <v>0.3965125465117623</v>
       </c>
       <c r="B42">
         <v>2020</v>
       </c>
       <c r="C42">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D42">
-        <v>0.3768041803540119</v>
+        <v>0.3734988068305719</v>
       </c>
       <c r="E42">
-        <v>0.4198948409174501</v>
+        <v>0.4195262861929526</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1293,19 +1293,19 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.01782768833570603</v>
+        <v>0.02022821483879226</v>
       </c>
       <c r="B43">
         <v>2021</v>
       </c>
       <c r="C43">
-        <v>0.01099251544985667</v>
+        <v>0.01174170391897467</v>
       </c>
       <c r="D43">
-        <v>-0.003717641946013039</v>
+        <v>-0.002785524842398086</v>
       </c>
       <c r="E43">
-        <v>0.03937301861742511</v>
+        <v>0.04324195451998261</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1315,19 +1315,19 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.5193516416859904</v>
+        <v>-0.509399815014424</v>
       </c>
       <c r="B44">
         <v>2001</v>
       </c>
       <c r="C44">
-        <v>0.01674173501182221</v>
+        <v>0.01708903984753451</v>
       </c>
       <c r="D44">
-        <v>-0.5521654423091619</v>
+        <v>-0.5428943331155917</v>
       </c>
       <c r="E44">
-        <v>-0.4865378410628188</v>
+        <v>-0.4759052969132563</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1337,19 +1337,19 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.1658286117585613</v>
+        <v>0.1658397770178189</v>
       </c>
       <c r="B45">
         <v>2002</v>
       </c>
       <c r="C45">
-        <v>0.01674173501182221</v>
+        <v>0.01708903984753451</v>
       </c>
       <c r="D45">
-        <v>0.1330148111353898</v>
+        <v>0.1323452589166513</v>
       </c>
       <c r="E45">
-        <v>0.1986424123817329</v>
+        <v>0.1993342951189865</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1359,19 +1359,19 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.50141009289715</v>
+        <v>-0.4957823885255219</v>
       </c>
       <c r="B46">
         <v>2003</v>
       </c>
       <c r="C46">
-        <v>0.01674173501182221</v>
+        <v>0.01708903984753451</v>
       </c>
       <c r="D46">
-        <v>-0.5342238935203215</v>
+        <v>-0.5292769066266895</v>
       </c>
       <c r="E46">
-        <v>-0.4685962922739785</v>
+        <v>-0.4622878704243542</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.5848308770315368</v>
+        <v>-0.5837986755702634</v>
       </c>
       <c r="B47">
         <v>2004</v>
       </c>
       <c r="C47">
-        <v>0.01674173501182221</v>
+        <v>0.01708903984753451</v>
       </c>
       <c r="D47">
-        <v>-0.6176446776547083</v>
+        <v>-0.6172931936714311</v>
       </c>
       <c r="E47">
-        <v>-0.5520170764083653</v>
+        <v>-0.5503041574690958</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1403,19 +1403,19 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.112645633166792</v>
+        <v>-0.1127078846457045</v>
       </c>
       <c r="B48">
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0.01674173501182221</v>
+        <v>0.01708903984753451</v>
       </c>
       <c r="D48">
-        <v>-0.1454594337899636</v>
+        <v>-0.1462024027468722</v>
       </c>
       <c r="E48">
-        <v>-0.07983183254362052</v>
+        <v>-0.0792133665445369</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1425,19 +1425,19 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>-0.4316286316514216</v>
+        <v>-0.4277192183424684</v>
       </c>
       <c r="B49">
         <v>2006</v>
       </c>
       <c r="C49">
-        <v>0.01674173501182221</v>
+        <v>0.01708903984753451</v>
       </c>
       <c r="D49">
-        <v>-0.4644424322745931</v>
+        <v>-0.4612137364436361</v>
       </c>
       <c r="E49">
-        <v>-0.39881483102825</v>
+        <v>-0.3942247002413007</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1447,19 +1447,19 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.186733279169919</v>
+        <v>-0.1859518134617164</v>
       </c>
       <c r="B50">
         <v>2007</v>
       </c>
       <c r="C50">
-        <v>0.01674173501182221</v>
+        <v>0.01708903984753451</v>
       </c>
       <c r="D50">
-        <v>-0.2195470797930905</v>
+        <v>-0.219446331562884</v>
       </c>
       <c r="E50">
-        <v>-0.1539194785467474</v>
+        <v>-0.1524572953605488</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1469,19 +1469,19 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.1335769148345065</v>
+        <v>-0.1337214254229196</v>
       </c>
       <c r="B51">
         <v>2008</v>
       </c>
       <c r="C51">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D51">
-        <v>-0.1620016917829462</v>
+        <v>-0.1627363190913337</v>
       </c>
       <c r="E51">
-        <v>-0.1051521378860668</v>
+        <v>-0.1047065317545055</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1491,19 +1491,19 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.3478916585855886</v>
+        <v>-0.3397971247695472</v>
       </c>
       <c r="B52">
         <v>2009</v>
       </c>
       <c r="C52">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D52">
-        <v>-0.3763164355340283</v>
+        <v>-0.3688120184379612</v>
       </c>
       <c r="E52">
-        <v>-0.3194668816371489</v>
+        <v>-0.3107822311011331</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1513,19 +1513,19 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.1631605375177153</v>
+        <v>0.1621915288450947</v>
       </c>
       <c r="B53">
         <v>2010</v>
       </c>
       <c r="C53">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D53">
-        <v>0.1347357605692756</v>
+        <v>0.1331766351766807</v>
       </c>
       <c r="E53">
-        <v>0.191585314466155</v>
+        <v>0.1912064225135088</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1535,19 +1535,19 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.1418977705256627</v>
+        <v>0.1396476866039656</v>
       </c>
       <c r="B54">
         <v>2011</v>
       </c>
       <c r="C54">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D54">
-        <v>0.113472993577223</v>
+        <v>0.1106327929355516</v>
       </c>
       <c r="E54">
-        <v>0.1703225474741025</v>
+        <v>0.1686625802723797</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1557,19 +1557,19 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.01539266091895935</v>
+        <v>-0.01416605986460761</v>
       </c>
       <c r="B55">
         <v>2012</v>
       </c>
       <c r="C55">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D55">
-        <v>-0.04381743786739907</v>
+        <v>-0.0431809535330217</v>
       </c>
       <c r="E55">
-        <v>0.01303211602948037</v>
+        <v>0.01484883380380648</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1579,19 +1579,19 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.2142292536935724</v>
+        <v>-0.2137124580804957</v>
       </c>
       <c r="B56">
         <v>2013</v>
       </c>
       <c r="C56">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D56">
-        <v>-0.2426540306420122</v>
+        <v>-0.2427273517489098</v>
       </c>
       <c r="E56">
-        <v>-0.1858044767451327</v>
+        <v>-0.1846975644120817</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1601,19 +1601,19 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.07588978536719218</v>
+        <v>0.07592662477120221</v>
       </c>
       <c r="B57">
         <v>2014</v>
       </c>
       <c r="C57">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D57">
-        <v>0.04746500841875246</v>
+        <v>0.04691173110278812</v>
       </c>
       <c r="E57">
-        <v>0.1043145623156319</v>
+        <v>0.1049415184396163</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1623,19 +1623,19 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.7285681774252907</v>
+        <v>0.725109508727057</v>
       </c>
       <c r="B58">
         <v>2015</v>
       </c>
       <c r="C58">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D58">
-        <v>0.700143400476851</v>
+        <v>0.6960946150586429</v>
       </c>
       <c r="E58">
-        <v>0.7569929543737304</v>
+        <v>0.7541244023954712</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1645,19 +1645,19 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.4636510453448237</v>
+        <v>0.46118840561492</v>
       </c>
       <c r="B59">
         <v>2016</v>
       </c>
       <c r="C59">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D59">
-        <v>0.435226268396384</v>
+        <v>0.4321735119465059</v>
       </c>
       <c r="E59">
-        <v>0.4920758222932634</v>
+        <v>0.4902032992833341</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1667,19 +1667,19 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.3021437187922227</v>
+        <v>0.2980123726296987</v>
       </c>
       <c r="B60">
         <v>2017</v>
       </c>
       <c r="C60">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D60">
-        <v>0.273718941843783</v>
+        <v>0.2689974789612846</v>
       </c>
       <c r="E60">
-        <v>0.3305684957406624</v>
+        <v>0.3270272662981128</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1689,19 +1689,19 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.1496587062725995</v>
+        <v>-0.1501029444128996</v>
       </c>
       <c r="B61">
         <v>2018</v>
       </c>
       <c r="C61">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D61">
-        <v>-0.1780834832210392</v>
+        <v>-0.1791178380813137</v>
       </c>
       <c r="E61">
-        <v>-0.1212339293241598</v>
+        <v>-0.1210880507444855</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1711,19 +1711,19 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.3007546173959956</v>
+        <v>0.2976222392194174</v>
       </c>
       <c r="B62">
         <v>2019</v>
       </c>
       <c r="C62">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D62">
-        <v>0.2723298404475559</v>
+        <v>0.2686073455510034</v>
       </c>
       <c r="E62">
-        <v>0.3291793943444353</v>
+        <v>0.3266371328878315</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1733,19 +1733,19 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.6365263882487687</v>
+        <v>0.6301944153231271</v>
       </c>
       <c r="B63">
         <v>2020</v>
       </c>
       <c r="C63">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D63">
-        <v>0.608101611300329</v>
+        <v>0.601179521654713</v>
       </c>
       <c r="E63">
-        <v>0.6649511651972084</v>
+        <v>0.6592093089915413</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1755,19 +1755,19 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.2189286980929193</v>
+        <v>0.2111272494020461</v>
       </c>
       <c r="B64">
         <v>2021</v>
       </c>
       <c r="C64">
-        <v>0.0145024372185917</v>
+        <v>0.01480351717776229</v>
       </c>
       <c r="D64">
-        <v>0.1905039211444796</v>
+        <v>0.182112355733632</v>
       </c>
       <c r="E64">
-        <v>0.247353475041359</v>
+        <v>0.2401421430704602</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
